--- a/employee.xlsx
+++ b/employee.xlsx
@@ -151,12 +151,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="12"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
